--- a/public/Import Penduduk.xlsx
+++ b/public/Import Penduduk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Orlen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\sikipa\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB13F1F-6638-4333-BC85-61501D9FA5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137FF1F-8C8D-4AD8-A1D0-ACF7B92C3D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9EB57C9D-B413-470B-A904-78E4021E91E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -61,25 +61,7 @@
     <t>3573020808072451</t>
   </si>
   <si>
-    <t>3573024902690003</t>
-  </si>
-  <si>
     <t>NOEROEL CHASANAH</t>
-  </si>
-  <si>
-    <t>3573025501990001</t>
-  </si>
-  <si>
-    <t>RIZKY RAMADHANI LAILY</t>
-  </si>
-  <si>
-    <t>3573021612010002</t>
-  </si>
-  <si>
-    <t>MUHAMMAD YUSUF WIRAYUDHA</t>
-  </si>
-  <si>
-    <t>Alamat Lengkap</t>
   </si>
   <si>
     <t>kelurahan</t>
@@ -97,13 +79,7 @@
     <t>Pendidikan</t>
   </si>
   <si>
-    <t>Jenis Pekerjaan</t>
-  </si>
-  <si>
     <t>Golongan Darah</t>
-  </si>
-  <si>
-    <t>Status Pada Keluarga</t>
   </si>
   <si>
     <t>Status Perkawinan</t>
@@ -172,21 +148,6 @@
     <t>HJ. MU'ADAH, ALM</t>
   </si>
   <si>
-    <t>SLTA/SEDERAJAT</t>
-  </si>
-  <si>
-    <t>PELAJAR/MAHASISWA</t>
-  </si>
-  <si>
-    <t>ANAK</t>
-  </si>
-  <si>
-    <t>BELUM KAWIN</t>
-  </si>
-  <si>
-    <t>BELUM TAMAT SD/SEDERAJAT</t>
-  </si>
-  <si>
     <t>Tanggal Lahir</t>
   </si>
   <si>
@@ -205,28 +166,13 @@
     <t>Islam</t>
   </si>
   <si>
-    <t>3573021612010003</t>
+    <t>Status Keluarga</t>
   </si>
   <si>
-    <t>3573020808070000</t>
+    <t>Alamat</t>
   </si>
   <si>
-    <t>3573021612010007</t>
-  </si>
-  <si>
-    <t>Taya</t>
-  </si>
-  <si>
-    <t>Orlen</t>
-  </si>
-  <si>
-    <t>3573021612010008</t>
-  </si>
-  <si>
-    <t>3573020808080000</t>
-  </si>
-  <si>
-    <t>3573020808081000</t>
+    <t>Pekerjaan</t>
   </si>
 </sst>
 </file>
@@ -617,7 +563,7 @@
   <dimension ref="A1:U316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,55 +602,55 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -724,52 +670,52 @@
         <v>36666</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="U2" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -777,10 +723,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -789,440 +735,118 @@
         <v>36666</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
-      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="9">
-        <v>43971</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L10" s="3"/>
